--- a/scoresheets_clean/GFFS.xlsx
+++ b/scoresheets_clean/GFFS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Dropbox/Wisconsin/EMBARK Lab/Code/BAM-data-cleaning/scoresheets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumb/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{10C89002-4628-B04D-B43B-68AFF35D1E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{43275BE1-2574-D942-A4C1-A637EBD994BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="4380" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23160" yWindow="10080" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GFFS_scoresheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="251" uniqueCount="60">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="290" uniqueCount="66">
   <si>
     <t>raw_vars</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Staying hungry is the only way I can guard against losing control and becoming fat.</t>
   </si>
   <si>
-    <t>gffs_fear_fat, gffs_fear_little_gain, gffs_overweight_risk, gffs_cannot_live, gffs_fat_worst, gffs_concentrate, gffs_painful_thought, gffs_energy_control_weight, gffs_eat_lose_control, gffs_stay_hungry</t>
-  </si>
-  <si>
     <t>select</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>sum</t>
   </si>
   <si>
-    <t>gffs_1_fear_fat, gffs_2_fear_little_gain, gffs_3_overweight_risk, gffs_4_cannot_live, gffs_5_fat_worst, gffs_6_concentrate, gffs_7_painful_thought, gffs_8_energy_control_weight, gffs_9_eat_lose_control, gffs_10_stay_hungry, gffs_sum, gffs_sum_complete, gffs_sum_NAs, gffs_sum_NA_percent, gffs_sum_weighted_sum</t>
-  </si>
-  <si>
     <t>if_else</t>
   </si>
   <si>
@@ -205,6 +199,30 @@
   </si>
   <si>
     <t>weighted sum of GFFS with 25% or less missing</t>
+  </si>
+  <si>
+    <t>record_id</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>redcap_event_name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>timepoint</t>
+  </si>
+  <si>
+    <t>record_id, redcap_event_name, gffs_fear_fat, gffs_fear_little_gain, gffs_overweight_risk, gffs_cannot_live, gffs_fat_worst, gffs_concentrate, gffs_painful_thought, gffs_energy_control_weight, gffs_eat_lose_control, gffs_stay_hungry</t>
+  </si>
+  <si>
+    <t>id, timepoint, gffs_1_fear_fat, gffs_2_fear_little_gain, gffs_3_overweight_risk, gffs_4_cannot_live, gffs_5_fat_worst, gffs_6_concentrate, gffs_7_painful_thought, gffs_8_energy_control_weight, gffs_9_eat_lose_control, gffs_10_stay_hungry, gffs_sum, gffs_sum_complete, gffs_sum_NAs, gffs_sum_NA_percent, gffs_sum_weighted_sum</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,85 +1131,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1220,13 +1235,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1255,13 +1270,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1290,13 +1305,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1325,13 +1340,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1360,13 +1375,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1395,13 +1410,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1430,13 +1445,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1465,22 +1480,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1500,25 +1515,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1535,130 +1550,130 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
         <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1675,25 +1690,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
         <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1710,25 +1725,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
         <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1745,25 +1760,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
         <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1780,25 +1795,25 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
         <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1815,25 +1830,25 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1850,25 +1865,25 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1885,71 +1900,211 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
